--- a/caravana.xlsx
+++ b/caravana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,15 +474,11 @@
       <c r="B2" t="n">
         <v>18</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>4545</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5243453</t>
-        </is>
+      <c r="C2" t="n">
+        <v>4545</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5243453</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -492,6 +488,36 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>2025-02-04 11:32:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Elielson Cardoso</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>37</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5442585</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14998736036</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Quórum de Élderes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-02-04 16:42:25</t>
         </is>
       </c>
     </row>

--- a/caravana.xlsx
+++ b/caravana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,63 +461,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>ordenancas</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ala</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>data_cadastro</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Elielson Barbosa Cardoso</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4545</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5243453</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Quórum de Élderes</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-02-04 11:32:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Elielson Cardoso</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>37</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5442585</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>14998736036</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Quórum de Élderes</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-02-04 16:42:25</t>
         </is>
       </c>
     </row>
